--- a/in-progress/Ghosh_2013_JMatChemA/SUBMISSION/S1/S1_template.xlsx
+++ b/in-progress/Ghosh_2013_JMatChemA/SUBMISSION/S1/S1_template.xlsx
@@ -1114,6 +1114,7 @@
     <cellStyle builtinId="8" name="Lien hypertexte" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors/>
 </styleSheet>
 </file>
 
@@ -1833,7 +1834,7 @@
       <c r="B14" s="131" t="n"/>
       <c r="C14" s="131" t="inlineStr">
         <is>
-          <t>S1/storage_modulus.xlsx</t>
+          <t>S1_storage_modulus.xlsx</t>
         </is>
       </c>
       <c r="D14" s="160" t="n"/>
